--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-deceased-date-time.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-deceased-date-time.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-deceased-date-time.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-deceased-date-time.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-deceased-date-time.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-deceased-date-time.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-deceased-date-time.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-deceased-date-time.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T11:46:45+00:00</t>
+    <t>2025-04-14T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -331,31 +331,32 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueDateTime</t>
+  </si>
+  <si>
+    <t>valueDateTime</t>
+  </si>
+  <si>
     <t xml:space="preserve">dateTime
 </t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueDateTime</t>
-  </si>
-  <si>
-    <t>valueDateTime</t>
   </si>
   <si>
     <t>Date de décès de la personne (dateDeces).</t>
@@ -690,7 +691,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1131,7 +1132,7 @@
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>81</v>
@@ -1325,7 +1326,7 @@
         <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>102</v>
@@ -1337,10 +1338,10 @@
         <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>101</v>
@@ -1348,13 +1349,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>102</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>76</v>
@@ -1376,7 +1377,7 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>111</v>
@@ -1442,10 +1443,10 @@
         <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>101</v>
